--- a/2018/league/alpha/data/standings/2018_week_5_standings.xlsx
+++ b/2018/league/alpha/data/standings/2018_week_5_standings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="137">
   <si>
     <t>Rank</t>
   </si>
@@ -2064,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z155"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14009,6 +14009,2162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="5">
+        <v>5</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D156" s="5">
+        <v>3</v>
+      </c>
+      <c r="E156" s="5">
+        <v>110</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0</v>
+      </c>
+      <c r="H156" s="5">
+        <v>2</v>
+      </c>
+      <c r="I156" s="5">
+        <v>0</v>
+      </c>
+      <c r="J156" s="5">
+        <v>0</v>
+      </c>
+      <c r="K156" s="5">
+        <v>0</v>
+      </c>
+      <c r="L156" s="5">
+        <v>0</v>
+      </c>
+      <c r="M156" s="5">
+        <v>1</v>
+      </c>
+      <c r="N156" s="5">
+        <v>0</v>
+      </c>
+      <c r="O156" s="5">
+        <v>0</v>
+      </c>
+      <c r="P156" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="5">
+        <v>1</v>
+      </c>
+      <c r="R156" s="5">
+        <v>0</v>
+      </c>
+      <c r="S156" s="5">
+        <v>3</v>
+      </c>
+      <c r="T156" s="5">
+        <v>0</v>
+      </c>
+      <c r="U156" s="5">
+        <v>0</v>
+      </c>
+      <c r="V156" s="5">
+        <v>0</v>
+      </c>
+      <c r="W156" s="5">
+        <v>0</v>
+      </c>
+      <c r="X156" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="5">
+        <v>6</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" s="5">
+        <v>5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>240</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0</v>
+      </c>
+      <c r="H157" s="5">
+        <v>1</v>
+      </c>
+      <c r="I157" s="5">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5">
+        <v>3</v>
+      </c>
+      <c r="K157" s="5">
+        <v>0</v>
+      </c>
+      <c r="L157" s="5">
+        <v>0</v>
+      </c>
+      <c r="M157" s="5">
+        <v>2</v>
+      </c>
+      <c r="N157" s="5">
+        <v>1</v>
+      </c>
+      <c r="O157" s="5">
+        <v>0</v>
+      </c>
+      <c r="P157" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="5">
+        <v>3</v>
+      </c>
+      <c r="R157" s="5">
+        <v>0</v>
+      </c>
+      <c r="S157" s="5">
+        <v>6</v>
+      </c>
+      <c r="T157" s="5">
+        <v>1</v>
+      </c>
+      <c r="U157" s="5">
+        <v>0</v>
+      </c>
+      <c r="V157" s="5">
+        <v>0</v>
+      </c>
+      <c r="W157" s="5">
+        <v>0</v>
+      </c>
+      <c r="X157" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="5">
+        <v>6</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158" s="5">
+        <v>5</v>
+      </c>
+      <c r="E158" s="5">
+        <v>253</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5">
+        <v>0</v>
+      </c>
+      <c r="H158" s="5">
+        <v>0</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5">
+        <v>5</v>
+      </c>
+      <c r="K158" s="5">
+        <v>0</v>
+      </c>
+      <c r="L158" s="5">
+        <v>0</v>
+      </c>
+      <c r="M158" s="5">
+        <v>2</v>
+      </c>
+      <c r="N158" s="5">
+        <v>0</v>
+      </c>
+      <c r="O158" s="5">
+        <v>0</v>
+      </c>
+      <c r="P158" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="5">
+        <v>5</v>
+      </c>
+      <c r="R158" s="5">
+        <v>47</v>
+      </c>
+      <c r="S158" s="5">
+        <v>3</v>
+      </c>
+      <c r="T158" s="5">
+        <v>1</v>
+      </c>
+      <c r="U158" s="5">
+        <v>0</v>
+      </c>
+      <c r="V158" s="5">
+        <v>0</v>
+      </c>
+      <c r="W158" s="5">
+        <v>0</v>
+      </c>
+      <c r="X158" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="5">
+        <v>6</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D159" s="5">
+        <v>4</v>
+      </c>
+      <c r="E159" s="5">
+        <v>180</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0</v>
+      </c>
+      <c r="H159" s="5">
+        <v>0</v>
+      </c>
+      <c r="I159" s="5">
+        <v>1</v>
+      </c>
+      <c r="J159" s="5">
+        <v>2</v>
+      </c>
+      <c r="K159" s="5">
+        <v>0</v>
+      </c>
+      <c r="L159" s="5">
+        <v>0</v>
+      </c>
+      <c r="M159" s="5">
+        <v>1</v>
+      </c>
+      <c r="N159" s="5">
+        <v>0</v>
+      </c>
+      <c r="O159" s="5">
+        <v>0</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="5">
+        <v>2</v>
+      </c>
+      <c r="R159" s="5">
+        <v>15</v>
+      </c>
+      <c r="S159" s="5">
+        <v>6</v>
+      </c>
+      <c r="T159" s="5">
+        <v>0</v>
+      </c>
+      <c r="U159" s="5">
+        <v>0</v>
+      </c>
+      <c r="V159" s="5">
+        <v>0</v>
+      </c>
+      <c r="W159" s="5">
+        <v>0</v>
+      </c>
+      <c r="X159" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="5">
+        <v>6</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2</v>
+      </c>
+      <c r="E160" s="5">
+        <v>81</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0</v>
+      </c>
+      <c r="H160" s="5">
+        <v>0</v>
+      </c>
+      <c r="I160" s="5">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0</v>
+      </c>
+      <c r="K160" s="5">
+        <v>0</v>
+      </c>
+      <c r="L160" s="5">
+        <v>0</v>
+      </c>
+      <c r="M160" s="5">
+        <v>1</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+      <c r="O160" s="5">
+        <v>0</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="5">
+        <v>2</v>
+      </c>
+      <c r="R160" s="5">
+        <v>14</v>
+      </c>
+      <c r="S160" s="5">
+        <v>3</v>
+      </c>
+      <c r="T160" s="5">
+        <v>1</v>
+      </c>
+      <c r="U160" s="5">
+        <v>0</v>
+      </c>
+      <c r="V160" s="5">
+        <v>0</v>
+      </c>
+      <c r="W160" s="5">
+        <v>0</v>
+      </c>
+      <c r="X160" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="5">
+        <v>6</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D161" s="5">
+        <v>4</v>
+      </c>
+      <c r="E161" s="5">
+        <v>172</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0</v>
+      </c>
+      <c r="H161" s="5">
+        <v>2</v>
+      </c>
+      <c r="I161" s="5">
+        <v>1</v>
+      </c>
+      <c r="J161" s="5">
+        <v>1</v>
+      </c>
+      <c r="K161" s="5">
+        <v>1</v>
+      </c>
+      <c r="L161" s="5">
+        <v>0</v>
+      </c>
+      <c r="M161" s="5">
+        <v>3</v>
+      </c>
+      <c r="N161" s="5">
+        <v>0</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="5">
+        <v>1</v>
+      </c>
+      <c r="R161" s="5">
+        <v>6</v>
+      </c>
+      <c r="S161" s="5">
+        <v>4</v>
+      </c>
+      <c r="T161" s="5">
+        <v>0</v>
+      </c>
+      <c r="U161" s="5">
+        <v>0</v>
+      </c>
+      <c r="V161" s="5">
+        <v>0</v>
+      </c>
+      <c r="W161" s="5">
+        <v>0</v>
+      </c>
+      <c r="X161" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="5">
+        <v>6</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162" s="5">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5">
+        <v>270</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5">
+        <v>3</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5">
+        <v>3</v>
+      </c>
+      <c r="K162" s="5">
+        <v>2</v>
+      </c>
+      <c r="L162" s="5">
+        <v>0</v>
+      </c>
+      <c r="M162" s="5">
+        <v>4</v>
+      </c>
+      <c r="N162" s="5">
+        <v>0</v>
+      </c>
+      <c r="O162" s="5">
+        <v>0</v>
+      </c>
+      <c r="P162" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="5">
+        <v>2</v>
+      </c>
+      <c r="R162" s="5">
+        <v>22</v>
+      </c>
+      <c r="S162" s="5">
+        <v>3</v>
+      </c>
+      <c r="T162" s="5">
+        <v>0</v>
+      </c>
+      <c r="U162" s="5">
+        <v>0</v>
+      </c>
+      <c r="V162" s="5">
+        <v>0</v>
+      </c>
+      <c r="W162" s="5">
+        <v>0</v>
+      </c>
+      <c r="X162" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="5">
+        <v>6</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="5">
+        <v>6</v>
+      </c>
+      <c r="E163" s="5">
+        <v>242</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5">
+        <v>1</v>
+      </c>
+      <c r="K163" s="5">
+        <v>0</v>
+      </c>
+      <c r="L163" s="5">
+        <v>0</v>
+      </c>
+      <c r="M163" s="5">
+        <v>5</v>
+      </c>
+      <c r="N163" s="5">
+        <v>2</v>
+      </c>
+      <c r="O163" s="5">
+        <v>1</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="5">
+        <v>3</v>
+      </c>
+      <c r="R163" s="5">
+        <v>36</v>
+      </c>
+      <c r="S163" s="5">
+        <v>2</v>
+      </c>
+      <c r="T163" s="5">
+        <v>0</v>
+      </c>
+      <c r="U163" s="5">
+        <v>0</v>
+      </c>
+      <c r="V163" s="5">
+        <v>0</v>
+      </c>
+      <c r="W163" s="5">
+        <v>0</v>
+      </c>
+      <c r="X163" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="5">
+        <v>6</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D164" s="5">
+        <v>5</v>
+      </c>
+      <c r="E164" s="5">
+        <v>208</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5">
+        <v>1</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0</v>
+      </c>
+      <c r="K164" s="5">
+        <v>0</v>
+      </c>
+      <c r="L164" s="5">
+        <v>0</v>
+      </c>
+      <c r="M164" s="5">
+        <v>0</v>
+      </c>
+      <c r="N164" s="5">
+        <v>0</v>
+      </c>
+      <c r="O164" s="5">
+        <v>0</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="5">
+        <v>4</v>
+      </c>
+      <c r="R164" s="5">
+        <v>51</v>
+      </c>
+      <c r="S164" s="5">
+        <v>6</v>
+      </c>
+      <c r="T164" s="5">
+        <v>0</v>
+      </c>
+      <c r="U164" s="5">
+        <v>0</v>
+      </c>
+      <c r="V164" s="5">
+        <v>0</v>
+      </c>
+      <c r="W164" s="5">
+        <v>0</v>
+      </c>
+      <c r="X164" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="5">
+        <v>6</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" s="5">
+        <v>5</v>
+      </c>
+      <c r="E165" s="5">
+        <v>243</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5">
+        <v>0</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5">
+        <v>2</v>
+      </c>
+      <c r="K165" s="5">
+        <v>1</v>
+      </c>
+      <c r="L165" s="5">
+        <v>0</v>
+      </c>
+      <c r="M165" s="5">
+        <v>2</v>
+      </c>
+      <c r="N165" s="5">
+        <v>2</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="5">
+        <v>3</v>
+      </c>
+      <c r="R165" s="5">
+        <v>7</v>
+      </c>
+      <c r="S165" s="5">
+        <v>3</v>
+      </c>
+      <c r="T165" s="5">
+        <v>0</v>
+      </c>
+      <c r="U165" s="5">
+        <v>0</v>
+      </c>
+      <c r="V165" s="5">
+        <v>0</v>
+      </c>
+      <c r="W165" s="5">
+        <v>0</v>
+      </c>
+      <c r="X165" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="5">
+        <v>6</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="5">
+        <v>5</v>
+      </c>
+      <c r="E166" s="5">
+        <v>203</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0</v>
+      </c>
+      <c r="H166" s="5">
+        <v>0</v>
+      </c>
+      <c r="I166" s="5">
+        <v>1</v>
+      </c>
+      <c r="J166" s="5">
+        <v>1</v>
+      </c>
+      <c r="K166" s="5">
+        <v>0</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0</v>
+      </c>
+      <c r="M166" s="5">
+        <v>2</v>
+      </c>
+      <c r="N166" s="5">
+        <v>0</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="5">
+        <v>3</v>
+      </c>
+      <c r="R166" s="5">
+        <v>8</v>
+      </c>
+      <c r="S166" s="5">
+        <v>3</v>
+      </c>
+      <c r="T166" s="5">
+        <v>0</v>
+      </c>
+      <c r="U166" s="5">
+        <v>0</v>
+      </c>
+      <c r="V166" s="5">
+        <v>0</v>
+      </c>
+      <c r="W166" s="5">
+        <v>0</v>
+      </c>
+      <c r="X166" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" s="5">
+        <v>6</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D167" s="5">
+        <v>4</v>
+      </c>
+      <c r="E167" s="5">
+        <v>162</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0</v>
+      </c>
+      <c r="G167" s="5">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5">
+        <v>1</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0</v>
+      </c>
+      <c r="K167" s="5">
+        <v>0</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0</v>
+      </c>
+      <c r="M167" s="5">
+        <v>2</v>
+      </c>
+      <c r="N167" s="5">
+        <v>1</v>
+      </c>
+      <c r="O167" s="5">
+        <v>0</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="5">
+        <v>1</v>
+      </c>
+      <c r="R167" s="5">
+        <v>5</v>
+      </c>
+      <c r="S167" s="5">
+        <v>5</v>
+      </c>
+      <c r="T167" s="5">
+        <v>0</v>
+      </c>
+      <c r="U167" s="5">
+        <v>0</v>
+      </c>
+      <c r="V167" s="5">
+        <v>0</v>
+      </c>
+      <c r="W167" s="5">
+        <v>0</v>
+      </c>
+      <c r="X167" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
+      <c r="A168" s="5">
+        <v>6</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D168" s="5">
+        <v>2</v>
+      </c>
+      <c r="E168" s="5">
+        <v>79</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0</v>
+      </c>
+      <c r="G168" s="5">
+        <v>0</v>
+      </c>
+      <c r="H168" s="5">
+        <v>1</v>
+      </c>
+      <c r="I168" s="5">
+        <v>1</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0</v>
+      </c>
+      <c r="M168" s="5">
+        <v>1</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="5">
+        <v>0</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0</v>
+      </c>
+      <c r="S168" s="5">
+        <v>4</v>
+      </c>
+      <c r="T168" s="5">
+        <v>1</v>
+      </c>
+      <c r="U168" s="5">
+        <v>0</v>
+      </c>
+      <c r="V168" s="5">
+        <v>0</v>
+      </c>
+      <c r="W168" s="5">
+        <v>0</v>
+      </c>
+      <c r="X168" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" s="5">
+        <v>6</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D169" s="5">
+        <v>6</v>
+      </c>
+      <c r="E169" s="5">
+        <v>288</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0</v>
+      </c>
+      <c r="H169" s="5">
+        <v>2</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5">
+        <v>3</v>
+      </c>
+      <c r="K169" s="5">
+        <v>1</v>
+      </c>
+      <c r="L169" s="5">
+        <v>0</v>
+      </c>
+      <c r="M169" s="5">
+        <v>1</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="5">
+        <v>3</v>
+      </c>
+      <c r="R169" s="5">
+        <v>26</v>
+      </c>
+      <c r="S169" s="5">
+        <v>2</v>
+      </c>
+      <c r="T169" s="5">
+        <v>0</v>
+      </c>
+      <c r="U169" s="5">
+        <v>0</v>
+      </c>
+      <c r="V169" s="5">
+        <v>0</v>
+      </c>
+      <c r="W169" s="5">
+        <v>0</v>
+      </c>
+      <c r="X169" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
+      <c r="A170" s="5">
+        <v>6</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D170" s="5">
+        <v>5</v>
+      </c>
+      <c r="E170" s="5">
+        <v>225</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0</v>
+      </c>
+      <c r="H170" s="5">
+        <v>1</v>
+      </c>
+      <c r="I170" s="5">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5">
+        <v>2</v>
+      </c>
+      <c r="K170" s="5">
+        <v>0</v>
+      </c>
+      <c r="L170" s="5">
+        <v>0</v>
+      </c>
+      <c r="M170" s="5">
+        <v>2</v>
+      </c>
+      <c r="N170" s="5">
+        <v>1</v>
+      </c>
+      <c r="O170" s="5">
+        <v>0</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="5">
+        <v>3</v>
+      </c>
+      <c r="R170" s="5">
+        <v>17</v>
+      </c>
+      <c r="S170" s="5">
+        <v>5</v>
+      </c>
+      <c r="T170" s="5">
+        <v>0</v>
+      </c>
+      <c r="U170" s="5">
+        <v>0</v>
+      </c>
+      <c r="V170" s="5">
+        <v>0</v>
+      </c>
+      <c r="W170" s="5">
+        <v>0</v>
+      </c>
+      <c r="X170" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="5">
+        <v>6</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D171" s="5">
+        <v>2</v>
+      </c>
+      <c r="E171" s="5">
+        <v>93</v>
+      </c>
+      <c r="F171" s="5">
+        <v>0</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0</v>
+      </c>
+      <c r="H171" s="5">
+        <v>1</v>
+      </c>
+      <c r="I171" s="5">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5">
+        <v>0</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0</v>
+      </c>
+      <c r="M171" s="5">
+        <v>0</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0</v>
+      </c>
+      <c r="O171" s="5">
+        <v>0</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="5">
+        <v>1</v>
+      </c>
+      <c r="R171" s="5">
+        <v>6</v>
+      </c>
+      <c r="S171" s="5">
+        <v>6</v>
+      </c>
+      <c r="T171" s="5">
+        <v>0</v>
+      </c>
+      <c r="U171" s="5">
+        <v>0</v>
+      </c>
+      <c r="V171" s="5">
+        <v>0</v>
+      </c>
+      <c r="W171" s="5">
+        <v>0</v>
+      </c>
+      <c r="X171" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" s="5">
+        <v>6</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
+        <v>43</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0</v>
+      </c>
+      <c r="H172" s="5">
+        <v>0</v>
+      </c>
+      <c r="I172" s="5">
+        <v>0</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5">
+        <v>0</v>
+      </c>
+      <c r="L172" s="5">
+        <v>0</v>
+      </c>
+      <c r="M172" s="5">
+        <v>0</v>
+      </c>
+      <c r="N172" s="5">
+        <v>0</v>
+      </c>
+      <c r="O172" s="5">
+        <v>0</v>
+      </c>
+      <c r="P172" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="5">
+        <v>0</v>
+      </c>
+      <c r="R172" s="5">
+        <v>0</v>
+      </c>
+      <c r="S172" s="5">
+        <v>9</v>
+      </c>
+      <c r="T172" s="5">
+        <v>0</v>
+      </c>
+      <c r="U172" s="5">
+        <v>0</v>
+      </c>
+      <c r="V172" s="5">
+        <v>0</v>
+      </c>
+      <c r="W172" s="5">
+        <v>0</v>
+      </c>
+      <c r="X172" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="5">
+        <v>6</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D173" s="5">
+        <v>3</v>
+      </c>
+      <c r="E173" s="5">
+        <v>92</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5">
+        <v>0</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0</v>
+      </c>
+      <c r="M173" s="5">
+        <v>0</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="5">
+        <v>1</v>
+      </c>
+      <c r="R173" s="5">
+        <v>0</v>
+      </c>
+      <c r="S173" s="5">
+        <v>1</v>
+      </c>
+      <c r="T173" s="5">
+        <v>1</v>
+      </c>
+      <c r="U173" s="5">
+        <v>0</v>
+      </c>
+      <c r="V173" s="5">
+        <v>0</v>
+      </c>
+      <c r="W173" s="5">
+        <v>0</v>
+      </c>
+      <c r="X173" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="5">
+        <v>6</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D174" s="5">
+        <v>2</v>
+      </c>
+      <c r="E174" s="5">
+        <v>86</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+      <c r="H174" s="5">
+        <v>1</v>
+      </c>
+      <c r="I174" s="5">
+        <v>1</v>
+      </c>
+      <c r="J174" s="5">
+        <v>1</v>
+      </c>
+      <c r="K174" s="5">
+        <v>0</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0</v>
+      </c>
+      <c r="M174" s="5">
+        <v>2</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="5">
+        <v>0</v>
+      </c>
+      <c r="R174" s="5">
+        <v>0</v>
+      </c>
+      <c r="S174" s="5">
+        <v>5</v>
+      </c>
+      <c r="T174" s="5">
+        <v>0</v>
+      </c>
+      <c r="U174" s="5">
+        <v>0</v>
+      </c>
+      <c r="V174" s="5">
+        <v>0</v>
+      </c>
+      <c r="W174" s="5">
+        <v>0</v>
+      </c>
+      <c r="X174" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="5">
+        <v>6</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D175" s="5">
+        <v>3</v>
+      </c>
+      <c r="E175" s="5">
+        <v>133</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5">
+        <v>1</v>
+      </c>
+      <c r="I175" s="5">
+        <v>0</v>
+      </c>
+      <c r="J175" s="5">
+        <v>1</v>
+      </c>
+      <c r="K175" s="5">
+        <v>0</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0</v>
+      </c>
+      <c r="M175" s="5">
+        <v>0</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="5">
+        <v>1</v>
+      </c>
+      <c r="R175" s="5">
+        <v>10</v>
+      </c>
+      <c r="S175" s="5">
+        <v>1</v>
+      </c>
+      <c r="T175" s="5">
+        <v>1</v>
+      </c>
+      <c r="U175" s="5">
+        <v>0</v>
+      </c>
+      <c r="V175" s="5">
+        <v>0</v>
+      </c>
+      <c r="W175" s="5">
+        <v>0</v>
+      </c>
+      <c r="X175" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" s="5">
+        <v>6</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D176" s="5">
+        <v>4</v>
+      </c>
+      <c r="E176" s="5">
+        <v>164</v>
+      </c>
+      <c r="F176" s="5">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0</v>
+      </c>
+      <c r="H176" s="5">
+        <v>1</v>
+      </c>
+      <c r="I176" s="5">
+        <v>0</v>
+      </c>
+      <c r="J176" s="5">
+        <v>1</v>
+      </c>
+      <c r="K176" s="5">
+        <v>0</v>
+      </c>
+      <c r="L176" s="5">
+        <v>0</v>
+      </c>
+      <c r="M176" s="5">
+        <v>2</v>
+      </c>
+      <c r="N176" s="5">
+        <v>2</v>
+      </c>
+      <c r="O176" s="5">
+        <v>1</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="5">
+        <v>1</v>
+      </c>
+      <c r="R176" s="5">
+        <v>0</v>
+      </c>
+      <c r="S176" s="5">
+        <v>5</v>
+      </c>
+      <c r="T176" s="5">
+        <v>0</v>
+      </c>
+      <c r="U176" s="5">
+        <v>0</v>
+      </c>
+      <c r="V176" s="5">
+        <v>0</v>
+      </c>
+      <c r="W176" s="5">
+        <v>0</v>
+      </c>
+      <c r="X176" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" s="5">
+        <v>6</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="5">
+        <v>4</v>
+      </c>
+      <c r="E177" s="5">
+        <v>169</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0</v>
+      </c>
+      <c r="H177" s="5">
+        <v>2</v>
+      </c>
+      <c r="I177" s="5">
+        <v>0</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0</v>
+      </c>
+      <c r="K177" s="5">
+        <v>0</v>
+      </c>
+      <c r="L177" s="5">
+        <v>0</v>
+      </c>
+      <c r="M177" s="5">
+        <v>2</v>
+      </c>
+      <c r="N177" s="5">
+        <v>1</v>
+      </c>
+      <c r="O177" s="5">
+        <v>0</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="5">
+        <v>2</v>
+      </c>
+      <c r="R177" s="5">
+        <v>29</v>
+      </c>
+      <c r="S177" s="5">
+        <v>4</v>
+      </c>
+      <c r="T177" s="5">
+        <v>0</v>
+      </c>
+      <c r="U177" s="5">
+        <v>0</v>
+      </c>
+      <c r="V177" s="5">
+        <v>0</v>
+      </c>
+      <c r="W177" s="5">
+        <v>0</v>
+      </c>
+      <c r="X177" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="5">
+        <v>6</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="5">
+        <v>3</v>
+      </c>
+      <c r="E178" s="5">
+        <v>120</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0</v>
+      </c>
+      <c r="H178" s="5">
+        <v>1</v>
+      </c>
+      <c r="I178" s="5">
+        <v>1</v>
+      </c>
+      <c r="J178" s="5">
+        <v>1</v>
+      </c>
+      <c r="K178" s="5">
+        <v>0</v>
+      </c>
+      <c r="L178" s="5">
+        <v>0</v>
+      </c>
+      <c r="M178" s="5">
+        <v>3</v>
+      </c>
+      <c r="N178" s="5">
+        <v>2</v>
+      </c>
+      <c r="O178" s="5">
+        <v>1</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="5">
+        <v>0</v>
+      </c>
+      <c r="R178" s="5">
+        <v>0</v>
+      </c>
+      <c r="S178" s="5">
+        <v>5</v>
+      </c>
+      <c r="T178" s="5">
+        <v>1</v>
+      </c>
+      <c r="U178" s="5">
+        <v>0</v>
+      </c>
+      <c r="V178" s="5">
+        <v>0</v>
+      </c>
+      <c r="W178" s="5">
+        <v>0</v>
+      </c>
+      <c r="X178" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="5">
+        <v>6</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D179" s="5">
+        <v>6</v>
+      </c>
+      <c r="E179" s="5">
+        <v>248</v>
+      </c>
+      <c r="F179" s="5">
+        <v>0</v>
+      </c>
+      <c r="G179" s="5">
+        <v>1</v>
+      </c>
+      <c r="H179" s="5">
+        <v>1</v>
+      </c>
+      <c r="I179" s="5">
+        <v>2</v>
+      </c>
+      <c r="J179" s="5">
+        <v>2</v>
+      </c>
+      <c r="K179" s="5">
+        <v>1</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0</v>
+      </c>
+      <c r="M179" s="5">
+        <v>2</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="5">
+        <v>2</v>
+      </c>
+      <c r="R179" s="5">
+        <v>9</v>
+      </c>
+      <c r="S179" s="5">
+        <v>1</v>
+      </c>
+      <c r="T179" s="5">
+        <v>0</v>
+      </c>
+      <c r="U179" s="5">
+        <v>0</v>
+      </c>
+      <c r="V179" s="5">
+        <v>0</v>
+      </c>
+      <c r="W179" s="5">
+        <v>0</v>
+      </c>
+      <c r="X179" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="5">
+        <v>6</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="5">
+        <v>3</v>
+      </c>
+      <c r="E180" s="5">
+        <v>123</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5">
+        <v>0</v>
+      </c>
+      <c r="H180" s="5">
+        <v>2</v>
+      </c>
+      <c r="I180" s="5">
+        <v>0</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+      <c r="K180" s="5">
+        <v>0</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0</v>
+      </c>
+      <c r="M180" s="5">
+        <v>1</v>
+      </c>
+      <c r="N180" s="5">
+        <v>1</v>
+      </c>
+      <c r="O180" s="5">
+        <v>1</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="5">
+        <v>6</v>
+      </c>
+      <c r="R180" s="5">
+        <v>48</v>
+      </c>
+      <c r="S180" s="5">
+        <v>8</v>
+      </c>
+      <c r="T180" s="5">
+        <v>0</v>
+      </c>
+      <c r="U180" s="5">
+        <v>0</v>
+      </c>
+      <c r="V180" s="5">
+        <v>0</v>
+      </c>
+      <c r="W180" s="5">
+        <v>0</v>
+      </c>
+      <c r="X180" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="5">
+        <v>6</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D181" s="5">
+        <v>9</v>
+      </c>
+      <c r="E181" s="5">
+        <v>375</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0</v>
+      </c>
+      <c r="H181" s="5">
+        <v>2</v>
+      </c>
+      <c r="I181" s="5">
+        <v>3</v>
+      </c>
+      <c r="J181" s="5">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5">
+        <v>0</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0</v>
+      </c>
+      <c r="M181" s="5">
+        <v>3</v>
+      </c>
+      <c r="N181" s="5">
+        <v>1</v>
+      </c>
+      <c r="O181" s="5">
+        <v>0</v>
+      </c>
+      <c r="P181" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="5">
+        <v>4</v>
+      </c>
+      <c r="R181" s="5">
+        <v>50</v>
+      </c>
+      <c r="S181" s="5">
+        <v>0</v>
+      </c>
+      <c r="T181" s="5">
+        <v>0</v>
+      </c>
+      <c r="U181" s="5">
+        <v>0</v>
+      </c>
+      <c r="V181" s="5">
+        <v>0</v>
+      </c>
+      <c r="W181" s="5">
+        <v>0</v>
+      </c>
+      <c r="X181" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" s="5">
+        <v>6</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" s="5">
+        <v>4</v>
+      </c>
+      <c r="E182" s="5">
+        <v>175</v>
+      </c>
+      <c r="F182" s="5">
+        <v>0</v>
+      </c>
+      <c r="G182" s="5">
+        <v>0</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0</v>
+      </c>
+      <c r="I182" s="5">
+        <v>2</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5">
+        <v>0</v>
+      </c>
+      <c r="L182" s="5">
+        <v>0</v>
+      </c>
+      <c r="M182" s="5">
+        <v>2</v>
+      </c>
+      <c r="N182" s="5">
+        <v>1</v>
+      </c>
+      <c r="O182" s="5">
+        <v>1</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="5">
+        <v>1</v>
+      </c>
+      <c r="R182" s="5">
+        <v>0</v>
+      </c>
+      <c r="S182" s="5">
+        <v>3</v>
+      </c>
+      <c r="T182" s="5">
+        <v>0</v>
+      </c>
+      <c r="U182" s="5">
+        <v>0</v>
+      </c>
+      <c r="V182" s="5">
+        <v>0</v>
+      </c>
+      <c r="W182" s="5">
+        <v>0</v>
+      </c>
+      <c r="X182" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="5">
+        <v>6</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1</v>
+      </c>
+      <c r="E183" s="5">
+        <v>51</v>
+      </c>
+      <c r="F183" s="5">
+        <v>0</v>
+      </c>
+      <c r="G183" s="5">
+        <v>0</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0</v>
+      </c>
+      <c r="I183" s="5">
+        <v>0</v>
+      </c>
+      <c r="J183" s="5">
+        <v>1</v>
+      </c>
+      <c r="K183" s="5">
+        <v>0</v>
+      </c>
+      <c r="L183" s="5">
+        <v>0</v>
+      </c>
+      <c r="M183" s="5">
+        <v>0</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="5">
+        <v>0</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0</v>
+      </c>
+      <c r="S183" s="5">
+        <v>8</v>
+      </c>
+      <c r="T183" s="5">
+        <v>0</v>
+      </c>
+      <c r="U183" s="5">
+        <v>0</v>
+      </c>
+      <c r="V183" s="5">
+        <v>0</v>
+      </c>
+      <c r="W183" s="5">
+        <v>0</v>
+      </c>
+      <c r="X183" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14016,7 +16172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z155"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -24199,31 +26355,31 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E133" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F133" s="4">
         <v>0</v>
       </c>
       <c r="G133" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H133" s="4">
         <v>0</v>
       </c>
       <c r="I133" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="4">
         <v>0</v>
@@ -24232,10 +26388,10 @@
         <v>0</v>
       </c>
       <c r="L133" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N133" s="4">
         <v>0</v>
@@ -24244,13 +26400,13 @@
         <v>0</v>
       </c>
       <c r="P133" s="4">
-        <v>0.425</v>
+        <v>-0.8333333333333336</v>
       </c>
       <c r="Q133" s="4">
-        <v>-0.1333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="R133" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S133" s="4">
         <v>-0</v>
@@ -24271,24 +26427,24 @@
         <v>0</v>
       </c>
       <c r="Y133" s="4">
-        <v>1.791666666666667</v>
+        <v>1.866666666666666</v>
       </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E134" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F134" s="4">
         <v>0</v>
@@ -24300,7 +26456,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" s="4">
         <v>0</v>
@@ -24309,10 +26465,10 @@
         <v>0</v>
       </c>
       <c r="L134" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N134" s="4">
         <v>0</v>
@@ -24321,16 +26477,16 @@
         <v>0</v>
       </c>
       <c r="P134" s="4">
-        <v>0.25</v>
+        <v>0.425</v>
       </c>
       <c r="Q134" s="4">
-        <v>1</v>
+        <v>-0.1333333333333334</v>
       </c>
       <c r="R134" s="4">
         <v>0.5</v>
       </c>
       <c r="S134" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T134" s="4">
         <v>0</v>
@@ -24348,21 +26504,21 @@
         <v>0</v>
       </c>
       <c r="Y134" s="4">
-        <v>1.75</v>
+        <v>1.791666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -24371,7 +26527,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H135" s="4">
         <v>0</v>
@@ -24386,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
@@ -24398,10 +26554,10 @@
         <v>0</v>
       </c>
       <c r="P135" s="4">
-        <v>-0.7000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="Q135" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="R135" s="4">
         <v>0.5</v>
@@ -24430,16 +26586,16 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -24448,13 +26604,13 @@
         <v>0</v>
       </c>
       <c r="G136" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H136" s="4">
         <v>0</v>
       </c>
       <c r="I136" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" s="4">
         <v>0</v>
@@ -24463,7 +26619,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -24475,16 +26631,16 @@
         <v>0</v>
       </c>
       <c r="P136" s="4">
-        <v>0.2</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="Q136" s="4">
-        <v>-1.15</v>
+        <v>1.2</v>
       </c>
       <c r="R136" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S136" s="4">
-        <v>-0</v>
+        <v>-0.25</v>
       </c>
       <c r="T136" s="4">
         <v>0</v>
@@ -24502,64 +26658,64 @@
         <v>0</v>
       </c>
       <c r="Y136" s="4">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
       </c>
       <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4">
+        <v>2</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>-1.15</v>
+      </c>
+      <c r="R137" s="4">
         <v>0.4</v>
       </c>
-      <c r="G137" s="4">
-        <v>0</v>
-      </c>
-      <c r="H137" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I137" s="4">
-        <v>0</v>
-      </c>
-      <c r="J137" s="4">
-        <v>0</v>
-      </c>
-      <c r="K137" s="4">
-        <v>0</v>
-      </c>
-      <c r="L137" s="4">
-        <v>1</v>
-      </c>
-      <c r="M137" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="N137" s="4">
-        <v>0</v>
-      </c>
-      <c r="O137" s="4">
-        <v>0</v>
-      </c>
-      <c r="P137" s="4">
-        <v>-0.125</v>
-      </c>
-      <c r="Q137" s="4">
-        <v>-1.05</v>
-      </c>
-      <c r="R137" s="4">
-        <v>0.3</v>
-      </c>
       <c r="S137" s="4">
         <v>-0</v>
       </c>
@@ -24579,33 +26735,33 @@
         <v>0</v>
       </c>
       <c r="Y137" s="4">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
       </c>
       <c r="F138" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G138" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H138" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I138" s="4">
         <v>0</v>
@@ -24620,7 +26776,7 @@
         <v>1</v>
       </c>
       <c r="M138" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N138" s="4">
         <v>0</v>
@@ -24629,16 +26785,16 @@
         <v>0</v>
       </c>
       <c r="P138" s="4">
-        <v>-0.8</v>
+        <v>-0.125</v>
       </c>
       <c r="Q138" s="4">
-        <v>0.4</v>
+        <v>-1.05</v>
       </c>
       <c r="R138" s="4">
         <v>0.3</v>
       </c>
       <c r="S138" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T138" s="4">
         <v>0</v>
@@ -24656,21 +26812,21 @@
         <v>0</v>
       </c>
       <c r="Y138" s="4">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -24679,10 +26835,10 @@
         <v>0</v>
       </c>
       <c r="G139" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H139" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I139" s="4">
         <v>0</v>
@@ -24694,7 +26850,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -24706,13 +26862,13 @@
         <v>0</v>
       </c>
       <c r="P139" s="4">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="Q139" s="4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="R139" s="4">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="S139" s="4">
         <v>-0.25</v>
@@ -24733,21 +26889,21 @@
         <v>0</v>
       </c>
       <c r="Y139" s="4">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
@@ -24756,10 +26912,10 @@
         <v>0</v>
       </c>
       <c r="G140" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H140" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I140" s="4">
         <v>0</v>
@@ -24771,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -24783,16 +26939,16 @@
         <v>0</v>
       </c>
       <c r="P140" s="4">
-        <v>-0.5666666666666664</v>
+        <v>-0.3</v>
       </c>
       <c r="Q140" s="4">
         <v>0.9</v>
       </c>
       <c r="R140" s="4">
-        <v>0.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="S140" s="4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="T140" s="4">
         <v>0</v>
@@ -24810,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="Y140" s="4">
-        <v>0.8833333333333335</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -24818,13 +26974,13 @@
         <v>2</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
@@ -24833,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H141" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I141" s="4">
         <v>0</v>
@@ -24848,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -24860,16 +27016,16 @@
         <v>0</v>
       </c>
       <c r="P141" s="4">
-        <v>-0.175</v>
+        <v>-0.5666666666666664</v>
       </c>
       <c r="Q141" s="4">
-        <v>0.4333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="R141" s="4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S141" s="4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="T141" s="4">
         <v>0</v>
@@ -24887,21 +27043,21 @@
         <v>0</v>
       </c>
       <c r="Y141" s="4">
-        <v>0.6583333333333333</v>
+        <v>0.8833333333333335</v>
       </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E142" s="4">
         <v>0</v>
@@ -24913,10 +27069,10 @@
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I142" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" s="4">
         <v>0</v>
@@ -24925,10 +27081,10 @@
         <v>0</v>
       </c>
       <c r="L142" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N142" s="4">
         <v>0</v>
@@ -24940,10 +27096,10 @@
         <v>-0.175</v>
       </c>
       <c r="Q142" s="4">
-        <v>-3.35</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R142" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S142" s="4">
         <v>-0</v>
@@ -24964,21 +27120,21 @@
         <v>0</v>
       </c>
       <c r="Y142" s="4">
-        <v>0.6250000000000002</v>
+        <v>0.6583333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E143" s="4">
         <v>0</v>
@@ -24990,10 +27146,10 @@
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I143" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" s="4">
         <v>0</v>
@@ -25002,10 +27158,10 @@
         <v>0</v>
       </c>
       <c r="L143" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N143" s="4">
         <v>0</v>
@@ -25014,16 +27170,16 @@
         <v>0</v>
       </c>
       <c r="P143" s="4">
-        <v>0.4</v>
+        <v>-0.175</v>
       </c>
       <c r="Q143" s="4">
-        <v>-0.2</v>
+        <v>-3.35</v>
       </c>
       <c r="R143" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S143" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T143" s="4">
         <v>0</v>
@@ -25041,21 +27197,21 @@
         <v>0</v>
       </c>
       <c r="Y143" s="4">
-        <v>0.3500000000000001</v>
+        <v>0.6250000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E144" s="4">
         <v>0</v>
@@ -25070,10 +27226,10 @@
         <v>0</v>
       </c>
       <c r="I144" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K144" s="4">
         <v>0</v>
@@ -25091,13 +27247,13 @@
         <v>0</v>
       </c>
       <c r="P144" s="4">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q144" s="4">
-        <v>-3.85</v>
+        <v>-0.2</v>
       </c>
       <c r="R144" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S144" s="4">
         <v>-0.25</v>
@@ -25118,12 +27274,12 @@
         <v>0</v>
       </c>
       <c r="Y144" s="4">
-        <v>0.3499999999999999</v>
+        <v>0.3500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>136</v>
@@ -25135,7 +27291,7 @@
         <v>104</v>
       </c>
       <c r="E145" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F145" s="4">
         <v>0</v>
@@ -25150,7 +27306,7 @@
         <v>2</v>
       </c>
       <c r="J145" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K145" s="4">
         <v>0</v>
@@ -25168,10 +27324,10 @@
         <v>0</v>
       </c>
       <c r="P145" s="4">
-        <v>0.6000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Q145" s="4">
-        <v>0.5</v>
+        <v>-3.85</v>
       </c>
       <c r="R145" s="4">
         <v>0.2</v>
@@ -25195,24 +27351,24 @@
         <v>0</v>
       </c>
       <c r="Y145" s="4">
-        <v>0.0500000000000001</v>
+        <v>0.3499999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E146" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -25224,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" s="4">
         <v>0</v>
@@ -25245,17 +27401,17 @@
         <v>0</v>
       </c>
       <c r="P146" s="4">
-        <v>-0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q146" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R146" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S146" s="4">
         <v>-0.25</v>
       </c>
-      <c r="R146" s="4">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="S146" s="4">
-        <v>-0</v>
-      </c>
       <c r="T146" s="4">
         <v>0</v>
       </c>
@@ -25272,7 +27428,7 @@
         <v>0</v>
       </c>
       <c r="Y146" s="4">
-        <v>-0.1499999999999999</v>
+        <v>0.0500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -25283,10 +27439,10 @@
         <v>136</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -25322,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="P147" s="4">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="Q147" s="4">
-        <v>-0.4</v>
+        <v>-0.25</v>
       </c>
       <c r="R147" s="4">
         <v>0.6000000000000001</v>
@@ -25349,12 +27505,12 @@
         <v>0</v>
       </c>
       <c r="Y147" s="4">
-        <v>-0.2</v>
+        <v>-0.1499999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>136</v>
@@ -25366,16 +27522,16 @@
         <v>71</v>
       </c>
       <c r="E148" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F148" s="4">
         <v>0</v>
       </c>
       <c r="G148" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H148" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I148" s="4">
         <v>0</v>
@@ -25387,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="L148" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M148" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N148" s="4">
         <v>0</v>
@@ -25399,13 +27555,13 @@
         <v>0</v>
       </c>
       <c r="P148" s="4">
-        <v>-0.6000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="Q148" s="4">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="R148" s="4">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S148" s="4">
         <v>-0</v>
@@ -25431,25 +27587,25 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E149" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F149" s="4">
         <v>0</v>
       </c>
       <c r="G149" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H149" s="4">
         <v>0.1</v>
@@ -25464,10 +27620,10 @@
         <v>0</v>
       </c>
       <c r="L149" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M149" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N149" s="4">
         <v>0</v>
@@ -25476,16 +27632,16 @@
         <v>0</v>
       </c>
       <c r="P149" s="4">
-        <v>-0.95</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="Q149" s="4">
         <v>0</v>
       </c>
       <c r="R149" s="4">
-        <v>0.6000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="S149" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T149" s="4">
         <v>0</v>
@@ -25503,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="Y149" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -25511,13 +27667,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -25529,10 +27685,10 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I150" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" s="4">
         <v>0</v>
@@ -25541,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>
@@ -25553,16 +27709,16 @@
         <v>0</v>
       </c>
       <c r="P150" s="4">
-        <v>-0.4</v>
+        <v>-0.95</v>
       </c>
       <c r="Q150" s="4">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="R150" s="4">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S150" s="4">
-        <v>-0</v>
+        <v>-0.25</v>
       </c>
       <c r="T150" s="4">
         <v>0</v>
@@ -25585,16 +27741,16 @@
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -25606,10 +27762,10 @@
         <v>0</v>
       </c>
       <c r="H151" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I151" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="4">
         <v>0</v>
@@ -25618,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="L151" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="4">
         <v>0</v>
@@ -25630,60 +27786,60 @@
         <v>0</v>
       </c>
       <c r="P151" s="4">
-        <v>-0.6000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="Q151" s="4">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
       <c r="R151" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S151" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T151" s="4">
+        <v>0</v>
+      </c>
+      <c r="U151" s="4">
+        <v>0</v>
+      </c>
+      <c r="V151" s="4">
+        <v>-0</v>
+      </c>
+      <c r="W151" s="4">
+        <v>-0</v>
+      </c>
+      <c r="X151" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="4">
         <v>-0.5</v>
-      </c>
-      <c r="T151" s="4">
-        <v>0</v>
-      </c>
-      <c r="U151" s="4">
-        <v>0</v>
-      </c>
-      <c r="V151" s="4">
-        <v>-0</v>
-      </c>
-      <c r="W151" s="4">
-        <v>-0</v>
-      </c>
-      <c r="X151" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y151" s="4">
-        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E152" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F152" s="4">
         <v>0</v>
       </c>
       <c r="G152" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H152" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I152" s="4">
         <v>0</v>
@@ -25695,7 +27851,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152" s="4">
         <v>0</v>
@@ -25707,16 +27863,16 @@
         <v>0</v>
       </c>
       <c r="P152" s="4">
-        <v>-0.1799999999999997</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="Q152" s="4">
-        <v>0.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R152" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S152" s="4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="T152" s="4">
         <v>0</v>
@@ -25734,30 +27890,30 @@
         <v>0</v>
       </c>
       <c r="Y152" s="4">
-        <v>-1.013333333333333</v>
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E153" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F153" s="4">
         <v>0</v>
       </c>
       <c r="G153" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H153" s="4">
         <v>0</v>
@@ -25784,16 +27940,16 @@
         <v>0</v>
       </c>
       <c r="P153" s="4">
-        <v>-2.1</v>
+        <v>-0.1799999999999997</v>
       </c>
       <c r="Q153" s="4">
-        <v>0</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="R153" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S153" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T153" s="4">
         <v>0</v>
@@ -25811,7 +27967,7 @@
         <v>0</v>
       </c>
       <c r="Y153" s="4">
-        <v>-1.15</v>
+        <v>-1.013333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:25">
@@ -25822,10 +27978,10 @@
         <v>136</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -25840,7 +27996,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" s="4">
         <v>0</v>
@@ -25849,7 +28005,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" s="4">
         <v>0</v>
@@ -25861,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="P154" s="4">
-        <v>0.5666666666666664</v>
+        <v>-2.1</v>
       </c>
       <c r="Q154" s="4">
-        <v>-3.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R154" s="4">
         <v>0.2</v>
       </c>
       <c r="S154" s="4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="T154" s="4">
         <v>0</v>
@@ -25888,83 +28044,160 @@
         <v>0</v>
       </c>
       <c r="Y154" s="4">
-        <v>-1.4</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>0</v>
+      </c>
+      <c r="H155" s="4">
+        <v>0</v>
+      </c>
+      <c r="I155" s="4">
+        <v>2</v>
+      </c>
+      <c r="J155" s="4">
+        <v>0</v>
+      </c>
+      <c r="K155" s="4">
+        <v>0</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0</v>
+      </c>
+      <c r="O155" s="4">
+        <v>0</v>
+      </c>
+      <c r="P155" s="4">
+        <v>0.5666666666666664</v>
+      </c>
+      <c r="Q155" s="4">
+        <v>-3.666666666666667</v>
+      </c>
+      <c r="R155" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S155" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="T155" s="4">
+        <v>0</v>
+      </c>
+      <c r="U155" s="4">
+        <v>0</v>
+      </c>
+      <c r="V155" s="4">
+        <v>-0</v>
+      </c>
+      <c r="W155" s="4">
+        <v>-0</v>
+      </c>
+      <c r="X155" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="4">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="3">
         <v>4</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E156" s="4">
         <v>-3</v>
       </c>
-      <c r="F155" s="4">
-        <v>0</v>
-      </c>
-      <c r="G155" s="4">
+      <c r="F156" s="4">
+        <v>0</v>
+      </c>
+      <c r="G156" s="4">
         <v>0.25</v>
       </c>
-      <c r="H155" s="4">
-        <v>0</v>
-      </c>
-      <c r="I155" s="4">
-        <v>0</v>
-      </c>
-      <c r="J155" s="4">
-        <v>0</v>
-      </c>
-      <c r="K155" s="4">
-        <v>0</v>
-      </c>
-      <c r="L155" s="4">
-        <v>1</v>
-      </c>
-      <c r="M155" s="4">
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+      <c r="J156" s="4">
+        <v>0</v>
+      </c>
+      <c r="K156" s="4">
+        <v>0</v>
+      </c>
+      <c r="L156" s="4">
+        <v>1</v>
+      </c>
+      <c r="M156" s="4">
         <v>0.75</v>
       </c>
-      <c r="N155" s="4">
-        <v>0</v>
-      </c>
-      <c r="O155" s="4">
-        <v>0</v>
-      </c>
-      <c r="P155" s="4">
+      <c r="N156" s="4">
+        <v>0</v>
+      </c>
+      <c r="O156" s="4">
+        <v>0</v>
+      </c>
+      <c r="P156" s="4">
         <v>-1.4</v>
       </c>
-      <c r="Q155" s="4">
-        <v>0</v>
-      </c>
-      <c r="R155" s="4">
+      <c r="Q156" s="4">
+        <v>0</v>
+      </c>
+      <c r="R156" s="4">
         <v>0.5</v>
       </c>
-      <c r="S155" s="4">
-        <v>-0</v>
-      </c>
-      <c r="T155" s="4">
-        <v>0</v>
-      </c>
-      <c r="U155" s="4">
-        <v>0</v>
-      </c>
-      <c r="V155" s="4">
-        <v>-0</v>
-      </c>
-      <c r="W155" s="4">
-        <v>-0</v>
-      </c>
-      <c r="X155" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y155" s="4">
+      <c r="S156" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T156" s="4">
+        <v>0</v>
+      </c>
+      <c r="U156" s="4">
+        <v>0</v>
+      </c>
+      <c r="V156" s="4">
+        <v>-0</v>
+      </c>
+      <c r="W156" s="4">
+        <v>-0</v>
+      </c>
+      <c r="X156" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="4">
         <v>-1.9</v>
       </c>
     </row>
@@ -36158,7 +38391,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -37951,13 +40184,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -37966,7 +40199,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
@@ -37993,16 +40226,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>-0.7000000000000001</v>
+        <v>-0.8333333333333336</v>
       </c>
       <c r="Q24" s="4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="R24" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S24" s="4">
-        <v>-0.25</v>
+        <v>-0</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -38020,7 +40253,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="4">
-        <v>1.75</v>
+        <v>1.866666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -38028,25 +40261,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -38061,7 +40294,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
@@ -38070,16 +40303,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <v>-0.125</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="Q25" s="4">
-        <v>-1.05</v>
+        <v>1.2</v>
       </c>
       <c r="R25" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S25" s="4">
-        <v>-0</v>
+        <v>-0.25</v>
       </c>
       <c r="T25" s="4">
         <v>0</v>
@@ -38097,7 +40330,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -38105,19 +40338,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -38126,7 +40359,7 @@
         <v>0.1</v>
       </c>
       <c r="I26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -38147,10 +40380,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="4">
-        <v>-0.175</v>
+        <v>-0.125</v>
       </c>
       <c r="Q26" s="4">
-        <v>-3.35</v>
+        <v>-1.05</v>
       </c>
       <c r="R26" s="4">
         <v>0.3</v>
@@ -38174,7 +40407,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="4">
-        <v>0.6250000000000002</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -38185,25 +40418,25 @@
         <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4">
         <v>0.1</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -38212,7 +40445,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4">
         <v>0.75</v>
@@ -38224,10 +40457,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <v>-0.6000000000000001</v>
+        <v>-0.175</v>
       </c>
       <c r="Q27" s="4">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="R27" s="4">
         <v>0.3</v>
@@ -38251,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="4">
-        <v>-0.2</v>
+        <v>0.6250000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -38259,22 +40492,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H28" s="4">
         <v>0.1</v>
@@ -38289,10 +40522,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
@@ -38307,27 +40540,104 @@
         <v>0</v>
       </c>
       <c r="R28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S28" s="4">
+        <v>-0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>-0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>-0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
         <v>0.4</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S29" s="4">
         <v>-0.5</v>
       </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
-        <v>-0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>-0</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>-0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>-0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
         <v>-0.6000000000000001</v>
       </c>
     </row>
